--- a/likert/examples/in_their_own_words/Sentiment analysis for in your own words addict's self-reference.xlsx
+++ b/likert/examples/in_their_own_words/Sentiment analysis for in your own words addict's self-reference.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="75">
   <si>
     <t>expression</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>productive</t>
+  </si>
+  <si>
+    <t>person with problems</t>
   </si>
 </sst>
 </file>
@@ -5030,8 +5033,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="s">
-        <v>41</v>
+      <c r="A39" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="B39" s="5">
         <v>-80.1478028</v>
@@ -5142,11 +5145,11 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="5">
-        <v>91.747272</v>
+      <c r="A47" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="10">
+        <v>-100.0</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>49</v>
@@ -5159,8 +5162,8 @@
       <c r="A48" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="5">
-        <v>92.95826550000001</v>
+      <c r="B48" s="10">
+        <v>-93.0</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>50</v>
@@ -5271,8 +5274,8 @@
       <c r="A56" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="5">
-        <v>98.1578052</v>
+      <c r="B56" s="10">
+        <v>-98.0</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>58</v>
